--- a/docs/data/hm.xlsx
+++ b/docs/data/hm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>Grimselpass</t>
+  </si>
+  <si>
+    <t>Seilialp</t>
+  </si>
+  <si>
+    <t>Bantiger</t>
   </si>
 </sst>
 </file>
@@ -1206,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,865 +1349,881 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="B16">
-        <v>2094</v>
+        <v>983</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>792</v>
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>2094</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18">
-        <v>1420</v>
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>792</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>1453</v>
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>1420</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>1406</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>1141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <v>567</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24">
-        <v>2348</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>1430</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26">
-        <v>1426</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>1041</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28">
-        <v>1640</v>
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>1041</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29">
-        <v>620</v>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>1640</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>787</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>2993</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32">
-        <v>582</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33">
-        <v>1205</v>
+        <v>582</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34">
-        <v>3087</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35">
-        <v>2204</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36">
-        <v>2129</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37">
-        <v>760</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38">
-        <v>1702</v>
+        <v>760</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39">
-        <v>2036</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40">
-        <v>2859</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41">
-        <v>3075</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42">
-        <v>2098</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="C43">
-        <v>2391</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C44">
-        <v>1962</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C45">
-        <v>1302</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46">
-        <v>2580</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="C47">
-        <v>2005</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48">
-        <v>1593</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49">
-        <v>1020</v>
+        <v>112</v>
+      </c>
+      <c r="C49">
+        <v>2005</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C50">
-        <v>1067</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51">
-        <v>1302</v>
+        <v>41</v>
+      </c>
+      <c r="B51">
+        <v>1020</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52">
-        <v>1400</v>
+        <v>122</v>
+      </c>
+      <c r="C52">
+        <v>3420</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53">
-        <v>1327</v>
+        <v>42</v>
+      </c>
+      <c r="C53">
+        <v>1067</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54">
-        <v>1305</v>
+        <v>43</v>
+      </c>
+      <c r="C54">
+        <v>1302</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="B55">
+        <v>1400</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>113</v>
+      <c r="A56" t="s">
+        <v>45</v>
       </c>
       <c r="B56">
-        <v>2440</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B57">
-        <v>1052</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58">
-        <v>2164</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59">
-        <v>1548</v>
+      <c r="A59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59">
+        <v>2440</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60">
-        <v>3035</v>
+        <v>48</v>
+      </c>
+      <c r="B60">
+        <v>1052</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61">
-        <v>2594</v>
+        <v>49</v>
+      </c>
+      <c r="B61">
+        <v>2164</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62">
-        <v>280</v>
+        <v>50</v>
+      </c>
+      <c r="C62">
+        <v>1548</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C63">
-        <v>1827</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64">
-        <v>565</v>
+        <v>52</v>
+      </c>
+      <c r="C64">
+        <v>2594</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65">
-        <v>1597</v>
+        <v>53</v>
+      </c>
+      <c r="B65">
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C66">
-        <v>673</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67">
-        <v>797</v>
+        <v>55</v>
+      </c>
+      <c r="B67">
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C68">
-        <v>1707</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69">
-        <v>2200</v>
+        <v>57</v>
+      </c>
+      <c r="C69">
+        <v>673</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C70">
-        <v>600</v>
+        <v>797</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C71">
-        <v>691</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B72">
-        <v>925</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C73">
-        <v>1020</v>
+        <v>600</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C74">
-        <v>2362</v>
+        <v>691</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75">
-        <v>691</v>
+        <v>63</v>
+      </c>
+      <c r="B75">
+        <v>925</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C76">
-        <v>1208</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C77">
-        <v>2989</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>69</v>
-      </c>
-      <c r="B78">
-        <v>1849</v>
+        <v>66</v>
+      </c>
+      <c r="C78">
+        <v>691</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C79">
-        <v>1628</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C80">
-        <v>1863</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C81">
-        <v>1358</v>
+      <c r="A81" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81">
+        <v>1849</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C82">
-        <v>2245</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C83">
-        <v>3259</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>73</v>
+      <c r="A84" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C84">
-        <v>1769</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="C85">
-        <v>1052</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C86">
-        <v>1065</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C87">
-        <v>1050</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>106</v>
+      <c r="A88" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88">
+        <v>1052</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="C89">
-        <v>2969</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>76</v>
-      </c>
-      <c r="B90">
-        <v>1937</v>
+        <v>74</v>
+      </c>
+      <c r="C90">
+        <v>1050</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>77</v>
-      </c>
-      <c r="B91">
-        <v>1037</v>
+      <c r="A91" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C92">
-        <v>2927</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B93">
-        <v>1455</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>80</v>
-      </c>
-      <c r="C94">
-        <v>2069</v>
+        <v>77</v>
+      </c>
+      <c r="B94">
+        <v>1037</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>81</v>
-      </c>
-      <c r="B95">
-        <v>800</v>
+        <v>78</v>
+      </c>
+      <c r="C95">
+        <v>2927</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B96">
-        <v>2051</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="C97">
-        <v>1105</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C98">
-        <v>3020</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>111</v>
-      </c>
-      <c r="C99">
-        <v>1677</v>
+        <v>81</v>
+      </c>
+      <c r="B99">
+        <v>800</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B100">
-        <v>1439</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C101">
-        <v>1863</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C102">
-        <v>3502</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C103">
-        <v>2855</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B104">
-        <v>1750</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C105">
-        <v>2326</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C106">
-        <v>1328</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C107">
-        <v>2798</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>92</v>
-      </c>
-      <c r="C108">
-        <v>1851</v>
+        <v>88</v>
+      </c>
+      <c r="B108">
+        <v>1750</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>93</v>
-      </c>
-      <c r="B109">
-        <v>1346</v>
+        <v>89</v>
+      </c>
+      <c r="C109">
+        <v>2326</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C110">
-        <v>1649</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C111">
-        <v>1822</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C112">
-        <v>2303</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>120</v>
-      </c>
-      <c r="C113">
-        <v>1217</v>
+        <v>93</v>
+      </c>
+      <c r="B113">
+        <v>1346</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C114">
-        <v>3690</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C115">
-        <v>2891</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C116">
-        <v>3244</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>98</v>
-      </c>
-      <c r="B117">
-        <v>1400</v>
+        <v>120</v>
+      </c>
+      <c r="C117">
+        <v>1217</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C118">
-        <v>2005</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C119">
-        <v>1875</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C120">
-        <v>1390</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>102</v>
-      </c>
-      <c r="C121">
-        <v>976</v>
+        <v>98</v>
+      </c>
+      <c r="B121">
+        <v>1400</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C122">
-        <v>3420</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C123">
-        <v>2164</v>
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>101</v>
+      </c>
+      <c r="C124">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>102</v>
+      </c>
+      <c r="C125">
+        <v>976</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C121">
-    <sortCondition ref="A2:A121"/>
+  <sortState ref="A2:C125">
+    <sortCondition ref="A2:A125"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/data/hm.xlsx
+++ b/docs/data/hm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -400,6 +400,21 @@
   </si>
   <si>
     <t>Bantiger</t>
+  </si>
+  <si>
+    <t>Gelmerhuette</t>
+  </si>
+  <si>
+    <t>Ofenhoren</t>
+  </si>
+  <si>
+    <t>Brienzwiler Bahnhof</t>
+  </si>
+  <si>
+    <t>Ze Hiischere</t>
+  </si>
+  <si>
+    <t>Ober Flue</t>
   </si>
 </sst>
 </file>
@@ -1212,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,705 +1540,745 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="C38">
-        <v>760</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39">
-        <v>1702</v>
+        <v>760</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40">
-        <v>2036</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41">
-        <v>2859</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42">
-        <v>3075</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="C43">
-        <v>2164</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="C44">
-        <v>2098</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45">
-        <v>2391</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46">
-        <v>1962</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47">
-        <v>1302</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48">
-        <v>2580</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="C49">
-        <v>2005</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="C50">
-        <v>1593</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51">
-        <v>1020</v>
+        <v>40</v>
+      </c>
+      <c r="C51">
+        <v>1593</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52">
-        <v>3420</v>
+        <v>41</v>
+      </c>
+      <c r="B52">
+        <v>1020</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="C53">
-        <v>1067</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54">
-        <v>1302</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55">
-        <v>1400</v>
+        <v>43</v>
+      </c>
+      <c r="C55">
+        <v>1302</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56">
-        <v>1327</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57">
-        <v>1305</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>2440</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60">
-        <v>1052</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B61">
-        <v>2164</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62">
-        <v>1548</v>
+        <v>49</v>
+      </c>
+      <c r="B62">
+        <v>2164</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C63">
-        <v>3035</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64">
-        <v>2594</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65">
-        <v>280</v>
+        <v>52</v>
+      </c>
+      <c r="C65">
+        <v>2594</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66">
-        <v>1827</v>
+        <v>53</v>
+      </c>
+      <c r="B66">
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67">
-        <v>565</v>
+        <v>54</v>
+      </c>
+      <c r="C67">
+        <v>1827</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68">
-        <v>1597</v>
+        <v>55</v>
+      </c>
+      <c r="B68">
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C69">
-        <v>673</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C70">
-        <v>797</v>
+        <v>673</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C71">
-        <v>1707</v>
+        <v>797</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>60</v>
-      </c>
-      <c r="B72">
-        <v>2200</v>
+        <v>59</v>
+      </c>
+      <c r="C72">
+        <v>1707</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73">
-        <v>600</v>
+        <v>60</v>
+      </c>
+      <c r="B73">
+        <v>2200</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C74">
-        <v>691</v>
+        <v>600</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>63</v>
-      </c>
-      <c r="B75">
-        <v>925</v>
+        <v>62</v>
+      </c>
+      <c r="C75">
+        <v>691</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>64</v>
-      </c>
-      <c r="C76">
-        <v>1020</v>
+        <v>63</v>
+      </c>
+      <c r="B76">
+        <v>925</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C77">
-        <v>2362</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78">
-        <v>691</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C79">
-        <v>1208</v>
+        <v>691</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C80">
-        <v>2989</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>69</v>
-      </c>
-      <c r="B81">
-        <v>1849</v>
+        <v>68</v>
+      </c>
+      <c r="C81">
+        <v>2989</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82">
-        <v>1628</v>
+        <v>69</v>
+      </c>
+      <c r="B82">
+        <v>1849</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="C83">
-        <v>1863</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>116</v>
+      <c r="A84" t="s">
+        <v>70</v>
       </c>
       <c r="C84">
-        <v>1358</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C85">
-        <v>2245</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>117</v>
+      <c r="A86" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C86">
-        <v>3259</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C87">
-        <v>1769</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C88">
-        <v>1052</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C89">
-        <v>1065</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="C90">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>106</v>
+      <c r="A91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91">
+        <v>1065</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C92">
-        <v>2969</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>76</v>
-      </c>
-      <c r="B93">
-        <v>1937</v>
+      <c r="A93" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>77</v>
-      </c>
-      <c r="B94">
-        <v>1037</v>
+        <v>75</v>
+      </c>
+      <c r="C94">
+        <v>2969</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>78</v>
-      </c>
-      <c r="C95">
-        <v>2927</v>
+        <v>76</v>
+      </c>
+      <c r="B95">
+        <v>1937</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B96">
-        <v>1455</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="C97">
-        <v>1359</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>80</v>
-      </c>
-      <c r="C98">
-        <v>2069</v>
+        <v>79</v>
+      </c>
+      <c r="B98">
+        <v>1455</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>81</v>
-      </c>
-      <c r="B99">
-        <v>800</v>
+        <v>125</v>
+      </c>
+      <c r="C99">
+        <v>1359</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>82</v>
-      </c>
-      <c r="B100">
-        <v>2051</v>
+        <v>80</v>
+      </c>
+      <c r="C100">
+        <v>2069</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>83</v>
-      </c>
-      <c r="C101">
-        <v>1105</v>
+        <v>81</v>
+      </c>
+      <c r="B101">
+        <v>800</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>84</v>
-      </c>
-      <c r="C102">
-        <v>3020</v>
+        <v>82</v>
+      </c>
+      <c r="B102">
+        <v>2051</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C103">
-        <v>1677</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>114</v>
-      </c>
-      <c r="B104">
-        <v>1439</v>
+        <v>84</v>
+      </c>
+      <c r="C104">
+        <v>3020</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C105">
-        <v>1863</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>86</v>
-      </c>
-      <c r="C106">
-        <v>3502</v>
+        <v>114</v>
+      </c>
+      <c r="B106">
+        <v>1439</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C107">
-        <v>2855</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>88</v>
-      </c>
-      <c r="B108">
-        <v>1750</v>
+        <v>86</v>
+      </c>
+      <c r="C108">
+        <v>3502</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C109">
-        <v>2326</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>90</v>
-      </c>
-      <c r="C110">
-        <v>1328</v>
+        <v>88</v>
+      </c>
+      <c r="B110">
+        <v>1750</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C111">
-        <v>2798</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C112">
-        <v>1851</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>93</v>
-      </c>
-      <c r="B113">
-        <v>1346</v>
+        <v>91</v>
+      </c>
+      <c r="C113">
+        <v>2798</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C114">
-        <v>1649</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>95</v>
-      </c>
-      <c r="C115">
-        <v>1822</v>
+        <v>93</v>
+      </c>
+      <c r="B115">
+        <v>1346</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C116">
-        <v>2303</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C117">
-        <v>1217</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C118">
-        <v>3690</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C119">
-        <v>2891</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C120">
-        <v>3244</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>98</v>
-      </c>
-      <c r="B121">
-        <v>1400</v>
+        <v>96</v>
+      </c>
+      <c r="C121">
+        <v>2891</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C122">
-        <v>2005</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>100</v>
-      </c>
-      <c r="C123">
-        <v>1875</v>
+        <v>98</v>
+      </c>
+      <c r="B123">
+        <v>1400</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C124">
-        <v>1390</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>100</v>
+      </c>
+      <c r="C125">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>101</v>
+      </c>
+      <c r="C126">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>102</v>
       </c>
-      <c r="C125">
+      <c r="C127">
         <v>976</v>
       </c>
     </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130">
+        <v>1677</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:C125">
-    <sortCondition ref="A2:A125"/>
+  <sortState ref="A2:C127">
+    <sortCondition ref="A2:A127"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/data/hm.xlsx
+++ b/docs/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -415,6 +415,12 @@
   </si>
   <si>
     <t>Ober Flue</t>
+  </si>
+  <si>
+    <t>Spreitloui Pt 1370</t>
+  </si>
+  <si>
+    <t>Aerlen Pt 2130</t>
   </si>
 </sst>
 </file>
@@ -1227,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,1028 +1263,1044 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="C3">
-        <v>3054</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2484</v>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3054</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>615</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2484</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>602</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7">
-        <v>1531</v>
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>1757</v>
+        <v>123</v>
+      </c>
+      <c r="B8">
+        <v>1531</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>600</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>2136</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11">
-        <v>2690</v>
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>2136</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12">
-        <v>2640</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="B13">
         <v>2640</v>
       </c>
-      <c r="C13">
-        <v>1057</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>590</v>
+        <v>2640</v>
+      </c>
+      <c r="C14">
+        <v>1057</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>2401</v>
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16">
-        <v>983</v>
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>2401</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="B17">
-        <v>2094</v>
+        <v>983</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>792</v>
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>2094</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>1420</v>
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>792</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20">
-        <v>1453</v>
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1420</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>1406</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>1141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23">
-        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>567</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25">
-        <v>2348</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26">
-        <v>1430</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27">
-        <v>1426</v>
+        <v>129</v>
+      </c>
+      <c r="B27">
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28">
-        <v>1041</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29">
-        <v>1640</v>
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>1426</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30">
-        <v>620</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31">
-        <v>787</v>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>1640</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>121</v>
+      <c r="A32" t="s">
+        <v>23</v>
       </c>
       <c r="C32">
-        <v>2993</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33">
-        <v>582</v>
+        <v>787</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>26</v>
+      <c r="A34" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C34">
-        <v>1205</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C35">
-        <v>3087</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C36">
-        <v>2204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C37">
-        <v>2129</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="C38">
-        <v>2412</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39">
-        <v>760</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="C40">
-        <v>1702</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C41">
-        <v>2036</v>
+        <v>760</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42">
-        <v>2859</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C43">
-        <v>3075</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="C44">
-        <v>2164</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45">
-        <v>2098</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="C46">
-        <v>2391</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C47">
-        <v>1962</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C48">
-        <v>1302</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C49">
-        <v>2580</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="C50">
-        <v>2005</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51">
-        <v>1593</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52">
-        <v>1020</v>
+        <v>112</v>
+      </c>
+      <c r="C52">
+        <v>2005</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="C53">
-        <v>3420</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54">
-        <v>1067</v>
+        <v>41</v>
+      </c>
+      <c r="B54">
+        <v>1020</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="C55">
-        <v>1302</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56">
-        <v>1400</v>
+        <v>42</v>
+      </c>
+      <c r="C56">
+        <v>1067</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57">
-        <v>1327</v>
+        <v>43</v>
+      </c>
+      <c r="C57">
+        <v>1302</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B58">
-        <v>1305</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="B59">
+        <v>1327</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>113</v>
+      <c r="A60" t="s">
+        <v>46</v>
       </c>
       <c r="B60">
-        <v>2440</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61">
-        <v>1052</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>49</v>
+      <c r="A62" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B62">
-        <v>2164</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63">
-        <v>1548</v>
+        <v>48</v>
+      </c>
+      <c r="B63">
+        <v>1052</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64">
-        <v>3035</v>
+        <v>49</v>
+      </c>
+      <c r="B64">
+        <v>2164</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C65">
-        <v>2594</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66">
-        <v>280</v>
+        <v>51</v>
+      </c>
+      <c r="C66">
+        <v>3035</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C67">
-        <v>1827</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B68">
-        <v>565</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C69">
-        <v>1597</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70">
-        <v>673</v>
+        <v>55</v>
+      </c>
+      <c r="B70">
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C71">
-        <v>797</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C72">
-        <v>1707</v>
+        <v>673</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>60</v>
-      </c>
-      <c r="B73">
-        <v>2200</v>
+        <v>58</v>
+      </c>
+      <c r="C73">
+        <v>797</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C74">
-        <v>600</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75">
-        <v>691</v>
+        <v>60</v>
+      </c>
+      <c r="B75">
+        <v>2200</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76">
-        <v>925</v>
+        <v>61</v>
+      </c>
+      <c r="C76">
+        <v>600</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C77">
-        <v>1020</v>
+        <v>691</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78">
-        <v>2362</v>
+        <v>63</v>
+      </c>
+      <c r="B78">
+        <v>925</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C79">
-        <v>691</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C80">
-        <v>1208</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C81">
-        <v>2989</v>
+        <v>691</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82">
-        <v>1849</v>
+        <v>131</v>
+      </c>
+      <c r="C82">
+        <v>1677</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="C83">
-        <v>2949</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C84">
-        <v>1628</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C85">
-        <v>1863</v>
+        <v>69</v>
+      </c>
+      <c r="B85">
+        <v>1849</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>116</v>
+      <c r="A86" t="s">
+        <v>128</v>
       </c>
       <c r="C86">
-        <v>1358</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C87">
-        <v>2245</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C88">
-        <v>3259</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>73</v>
+      <c r="A89" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C89">
-        <v>1769</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="C90">
-        <v>1052</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C91">
-        <v>1065</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C92">
-        <v>1050</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>106</v>
+      <c r="A93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93">
+        <v>1052</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="C94">
-        <v>2969</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>76</v>
-      </c>
-      <c r="B95">
-        <v>1937</v>
+        <v>74</v>
+      </c>
+      <c r="C95">
+        <v>1050</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>77</v>
-      </c>
-      <c r="B96">
-        <v>1037</v>
+      <c r="A96" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C97">
-        <v>2927</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B98">
-        <v>1455</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>125</v>
-      </c>
-      <c r="C99">
-        <v>1359</v>
+        <v>77</v>
+      </c>
+      <c r="B99">
+        <v>1037</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C100">
-        <v>2069</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B101">
-        <v>800</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>82</v>
-      </c>
-      <c r="B102">
-        <v>2051</v>
+        <v>125</v>
+      </c>
+      <c r="C102">
+        <v>1359</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C103">
-        <v>1105</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>84</v>
-      </c>
-      <c r="C104">
-        <v>3020</v>
+        <v>81</v>
+      </c>
+      <c r="B104">
+        <v>800</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>111</v>
-      </c>
-      <c r="C105">
-        <v>1677</v>
+        <v>82</v>
+      </c>
+      <c r="B105">
+        <v>2051</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>114</v>
-      </c>
-      <c r="B106">
-        <v>1439</v>
+        <v>83</v>
+      </c>
+      <c r="C106">
+        <v>1105</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C107">
-        <v>1863</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>86</v>
+      <c r="A108" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C108">
-        <v>3502</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C109">
-        <v>2855</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B110">
-        <v>1750</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C111">
-        <v>2326</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C112">
-        <v>1328</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C113">
-        <v>2798</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>92</v>
-      </c>
-      <c r="C114">
-        <v>1851</v>
+        <v>88</v>
+      </c>
+      <c r="B114">
+        <v>1750</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>93</v>
-      </c>
-      <c r="B115">
-        <v>1346</v>
+        <v>89</v>
+      </c>
+      <c r="C115">
+        <v>2326</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C116">
-        <v>1649</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C117">
-        <v>1822</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C118">
-        <v>2303</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>120</v>
-      </c>
-      <c r="C119">
-        <v>1217</v>
+        <v>93</v>
+      </c>
+      <c r="B119">
+        <v>1346</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C120">
-        <v>3690</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C121">
-        <v>2891</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C122">
-        <v>3244</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>98</v>
-      </c>
-      <c r="B123">
-        <v>1400</v>
+        <v>120</v>
+      </c>
+      <c r="C123">
+        <v>1217</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C124">
-        <v>2005</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C125">
-        <v>1875</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C126">
-        <v>1390</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>102</v>
-      </c>
-      <c r="C127">
-        <v>976</v>
+        <v>98</v>
+      </c>
+      <c r="B127">
+        <v>1400</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>129</v>
-      </c>
-      <c r="B128">
-        <v>574</v>
+        <v>99</v>
+      </c>
+      <c r="C128">
+        <v>2005</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>130</v>
+      <c r="A129" t="s">
+        <v>100</v>
       </c>
       <c r="C129">
-        <v>1079</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C130">
-        <v>1677</v>
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>102</v>
+      </c>
+      <c r="C132">
+        <v>976</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C127">
-    <sortCondition ref="A2:A127"/>
+  <sortState ref="A2:C132">
+    <sortCondition ref="A2:A132"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/data/hm.xlsx
+++ b/docs/data/hm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -421,6 +421,12 @@
   </si>
   <si>
     <t>Aerlen Pt 2130</t>
+  </si>
+  <si>
+    <t>Wart</t>
+  </si>
+  <si>
+    <t>Uratstock</t>
   </si>
 </sst>
 </file>
@@ -1233,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,127 +2186,143 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="C118">
-        <v>1851</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>93</v>
-      </c>
-      <c r="B119">
-        <v>1346</v>
+        <v>92</v>
+      </c>
+      <c r="C119">
+        <v>1851</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>94</v>
-      </c>
-      <c r="C120">
-        <v>1649</v>
+        <v>93</v>
+      </c>
+      <c r="B120">
+        <v>1346</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C121">
-        <v>1822</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C122">
-        <v>2303</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C123">
-        <v>1217</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C124">
-        <v>3690</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C125">
-        <v>2891</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C126">
-        <v>3244</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>98</v>
-      </c>
-      <c r="B127">
-        <v>1400</v>
+        <v>96</v>
+      </c>
+      <c r="C127">
+        <v>2891</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C128">
-        <v>2005</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>100</v>
-      </c>
-      <c r="C129">
-        <v>1875</v>
+        <v>98</v>
+      </c>
+      <c r="B129">
+        <v>1400</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C130">
-        <v>1390</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>130</v>
+      <c r="A131" t="s">
+        <v>100</v>
       </c>
       <c r="C131">
-        <v>1079</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>101</v>
+      </c>
+      <c r="C132">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C133">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>102</v>
       </c>
-      <c r="C132">
+      <c r="C134">
         <v>976</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C132">
-    <sortCondition ref="A2:A132"/>
+  <sortState ref="A2:C134">
+    <sortCondition ref="A2:A134"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/data/hm.xlsx
+++ b/docs/data/hm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -427,6 +427,21 @@
   </si>
   <si>
     <t>Uratstock</t>
+  </si>
+  <si>
+    <t>Wenden Pt. 1945</t>
+  </si>
+  <si>
+    <t>Guttannen Sonnseite</t>
+  </si>
+  <si>
+    <t>Maehrenhorn</t>
+  </si>
+  <si>
+    <t>Dornacherstrasse</t>
+  </si>
+  <si>
+    <t>Brandlammhorn Ostgipfel</t>
   </si>
 </sst>
 </file>
@@ -1239,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,6 +2335,46 @@
         <v>976</v>
       </c>
     </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="C135">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="C137">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="C138">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139">
+        <v>3089</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C134">
     <sortCondition ref="A2:A134"/>

--- a/docs/data/hm.xlsx
+++ b/docs/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>Brandlammhorn Ostgipfel</t>
+  </si>
+  <si>
+    <t>Planalp</t>
   </si>
 </sst>
 </file>
@@ -1254,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+      <selection activeCell="L132" sqref="L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,6 +2378,14 @@
         <v>3089</v>
       </c>
     </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140">
+        <v>1341</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C134">
     <sortCondition ref="A2:A134"/>

--- a/docs/data/hm.xlsx
+++ b/docs/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t>Planalp</t>
+  </si>
+  <si>
+    <t>Haslizentrum</t>
   </si>
 </sst>
 </file>
@@ -1257,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="L132" sqref="L132"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,453 +1468,453 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>17</v>
+      <c r="A25" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C25">
-        <v>567</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26">
-        <v>2348</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27">
-        <v>574</v>
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>2348</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28">
-        <v>1430</v>
+        <v>129</v>
+      </c>
+      <c r="B28">
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29">
-        <v>1426</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>1041</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31">
-        <v>1640</v>
+        <v>139</v>
+      </c>
+      <c r="C31">
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>620</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33">
-        <v>787</v>
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>1640</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>121</v>
+      <c r="A34" t="s">
+        <v>23</v>
       </c>
       <c r="C34">
-        <v>2993</v>
+        <v>620</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35">
-        <v>582</v>
+        <v>787</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>26</v>
+      <c r="A36" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C36">
-        <v>1205</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C37">
-        <v>3087</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C38">
-        <v>2204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C39">
-        <v>2129</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="C40">
-        <v>2412</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41">
-        <v>760</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="C42">
-        <v>1702</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C43">
-        <v>2036</v>
+        <v>760</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C44">
-        <v>2859</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C45">
-        <v>3075</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="C46">
-        <v>2164</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C47">
-        <v>2098</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="C48">
-        <v>2391</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C49">
-        <v>1962</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C50">
-        <v>1302</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C51">
-        <v>2580</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="C52">
-        <v>2005</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53">
-        <v>1593</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54">
-        <v>1020</v>
+        <v>112</v>
+      </c>
+      <c r="C54">
+        <v>2005</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="C55">
-        <v>3420</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>42</v>
+      <c r="A56" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C56">
-        <v>1067</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57">
-        <v>1302</v>
+        <v>41</v>
+      </c>
+      <c r="B57">
+        <v>1020</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58">
-        <v>1400</v>
+        <v>122</v>
+      </c>
+      <c r="C58">
+        <v>3420</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59">
-        <v>1327</v>
+        <v>42</v>
+      </c>
+      <c r="C59">
+        <v>1067</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60">
-        <v>1305</v>
+        <v>43</v>
+      </c>
+      <c r="C60">
+        <v>1302</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="B61">
+        <v>1400</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>113</v>
+      <c r="A62" t="s">
+        <v>45</v>
       </c>
       <c r="B62">
-        <v>2440</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B63">
-        <v>1052</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64">
-        <v>2164</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65">
-        <v>1548</v>
+      <c r="A65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65">
+        <v>2440</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>51</v>
-      </c>
-      <c r="C66">
-        <v>3035</v>
+        <v>48</v>
+      </c>
+      <c r="B66">
+        <v>1052</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67">
-        <v>2594</v>
+        <v>49</v>
+      </c>
+      <c r="B67">
+        <v>2164</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68">
-        <v>280</v>
+        <v>50</v>
+      </c>
+      <c r="C68">
+        <v>1548</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C69">
-        <v>1827</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70">
-        <v>565</v>
+        <v>52</v>
+      </c>
+      <c r="C70">
+        <v>2594</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71">
-        <v>1597</v>
+        <v>53</v>
+      </c>
+      <c r="B71">
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C72">
-        <v>673</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73">
-        <v>797</v>
+        <v>55</v>
+      </c>
+      <c r="B73">
+        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C74">
-        <v>1707</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>60</v>
-      </c>
-      <c r="B75">
-        <v>2200</v>
+        <v>57</v>
+      </c>
+      <c r="C75">
+        <v>673</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C76">
-        <v>600</v>
+        <v>797</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C77">
-        <v>691</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>63</v>
-      </c>
-      <c r="B78">
-        <v>925</v>
+        <v>138</v>
+      </c>
+      <c r="C78">
+        <v>2923</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>64</v>
-      </c>
-      <c r="C79">
-        <v>1020</v>
+        <v>60</v>
+      </c>
+      <c r="B79">
+        <v>2200</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C80">
-        <v>2362</v>
+        <v>600</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C81">
         <v>691</v>
@@ -1919,476 +1922,484 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>131</v>
-      </c>
-      <c r="C82">
-        <v>1677</v>
+        <v>63</v>
+      </c>
+      <c r="B82">
+        <v>925</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C83">
-        <v>1208</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C84">
-        <v>2989</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>69</v>
-      </c>
-      <c r="B85">
-        <v>1849</v>
+        <v>66</v>
+      </c>
+      <c r="C85">
+        <v>691</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C86">
-        <v>2949</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C87">
-        <v>1628</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C88">
-        <v>1863</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C89">
-        <v>1358</v>
+      <c r="A89" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89">
+        <v>1849</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="C90">
-        <v>2245</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C91">
-        <v>3259</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C92">
-        <v>1769</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>109</v>
+      <c r="A93" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C93">
-        <v>1052</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="C94">
-        <v>1065</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C95">
-        <v>1050</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>106</v>
+      <c r="A96" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96">
+        <v>3259</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C97">
-        <v>2969</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>76</v>
-      </c>
-      <c r="B98">
-        <v>1937</v>
+        <v>109</v>
+      </c>
+      <c r="C98">
+        <v>1052</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>77</v>
-      </c>
-      <c r="B99">
-        <v>1037</v>
+        <v>110</v>
+      </c>
+      <c r="C99">
+        <v>1065</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C100">
-        <v>2927</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>79</v>
-      </c>
-      <c r="B101">
-        <v>1455</v>
+      <c r="A101" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="C102">
-        <v>1359</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>80</v>
-      </c>
-      <c r="C103">
-        <v>2069</v>
+        <v>76</v>
+      </c>
+      <c r="B103">
+        <v>1937</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B104">
-        <v>800</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>82</v>
-      </c>
-      <c r="B105">
-        <v>2051</v>
+        <v>78</v>
+      </c>
+      <c r="C105">
+        <v>2927</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>83</v>
-      </c>
-      <c r="C106">
-        <v>1105</v>
+        <v>79</v>
+      </c>
+      <c r="B106">
+        <v>1455</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C107">
-        <v>3020</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>132</v>
+      <c r="A108" t="s">
+        <v>80</v>
       </c>
       <c r="C108">
-        <v>1370</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="C109">
-        <v>1677</v>
+        <v>81</v>
+      </c>
+      <c r="B109">
+        <v>800</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B110">
-        <v>1439</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C111">
-        <v>1863</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C112">
-        <v>3502</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>87</v>
+      <c r="A113" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C113">
-        <v>2855</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>88</v>
-      </c>
-      <c r="B114">
-        <v>1750</v>
+        <v>111</v>
+      </c>
+      <c r="C114">
+        <v>1677</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>89</v>
-      </c>
-      <c r="C115">
-        <v>2326</v>
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1439</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C116">
-        <v>1328</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C117">
-        <v>2798</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="C118">
-        <v>2911</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>92</v>
-      </c>
-      <c r="C119">
-        <v>1851</v>
+        <v>88</v>
+      </c>
+      <c r="B119">
+        <v>1750</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>93</v>
-      </c>
-      <c r="B120">
-        <v>1346</v>
+        <v>89</v>
+      </c>
+      <c r="C120">
+        <v>2326</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C121">
-        <v>1649</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C122">
-        <v>1822</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C123">
-        <v>2303</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C124">
-        <v>2705</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>120</v>
-      </c>
-      <c r="C125">
-        <v>1217</v>
+        <v>93</v>
+      </c>
+      <c r="B125">
+        <v>1346</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C126">
-        <v>3690</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C127">
-        <v>2891</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C128">
-        <v>3244</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>98</v>
-      </c>
-      <c r="B129">
-        <v>1400</v>
+        <v>134</v>
+      </c>
+      <c r="C129">
+        <v>2705</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C130">
-        <v>2005</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="C131">
-        <v>1875</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C132">
-        <v>1390</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>130</v>
+      <c r="A133" t="s">
+        <v>96</v>
       </c>
       <c r="C133">
-        <v>1079</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C134">
-        <v>976</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>136</v>
-      </c>
-      <c r="C135">
-        <v>1945</v>
+        <v>98</v>
+      </c>
+      <c r="B135">
+        <v>1400</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>137</v>
+      <c r="A136" t="s">
+        <v>99</v>
       </c>
       <c r="C136">
-        <v>1054</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="C137">
-        <v>2923</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C138">
-        <v>280</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C139">
-        <v>3089</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="C140">
-        <v>1341</v>
+        <v>976</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141">
+        <v>1256</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C134">
-    <sortCondition ref="A2:A134"/>
+  <sortState ref="A2:C140">
+    <sortCondition ref="A2:A140"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/data/hm.xlsx
+++ b/docs/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -448,6 +448,9 @@
   </si>
   <si>
     <t>Haslizentrum</t>
+  </si>
+  <si>
+    <t>Aarmatte</t>
   </si>
 </sst>
 </file>
@@ -1260,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,6 +2400,14 @@
         <v>1256</v>
       </c>
     </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142">
+        <v>596</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C140">
     <sortCondition ref="A2:A140"/>

--- a/docs/data/hm.xlsx
+++ b/docs/data/hm.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="hm" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>Aarmatte</t>
+  </si>
+  <si>
+    <t>Rufenen</t>
   </si>
 </sst>
 </file>
@@ -1263,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,6 +2411,14 @@
         <v>596</v>
       </c>
     </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143">
+        <v>1409</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C140">
     <sortCondition ref="A2:A140"/>
